--- a/Statystyki_2018/Template/okrr_.xlsx
+++ b/Statystyki_2018/Template/okrr_.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -354,9 +354,18 @@
     <t>55</t>
   </si>
   <si>
+    <t>c2w5</t>
+  </si>
+  <si>
     <t>c3 w5</t>
   </si>
   <si>
+    <t>c4w5</t>
+  </si>
+  <si>
+    <t>c5w5</t>
+  </si>
+  <si>
     <t>c6 w5</t>
   </si>
   <si>
@@ -366,10 +375,13 @@
     <t>powyżej 6 do 12 miesięcy</t>
   </si>
   <si>
-    <t>4,606</t>
-  </si>
-  <si>
-    <t>5666,66</t>
+    <t>c4w6</t>
+  </si>
+  <si>
+    <t>c5w6</t>
+  </si>
+  <si>
+    <t>c6w6</t>
   </si>
   <si>
     <t>c17 w6</t>
@@ -378,19 +390,22 @@
     <t>powyżej 12 miesięcy</t>
   </si>
   <si>
-    <t>2666,66</t>
-  </si>
-  <si>
-    <t>AAAA</t>
+    <t>c5w7</t>
+  </si>
+  <si>
+    <t>c6w7</t>
   </si>
   <si>
     <t>c7 w7</t>
   </si>
   <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>c16wt</t>
+    <t>c8w7</t>
+  </si>
+  <si>
+    <t>c13w7</t>
+  </si>
+  <si>
+    <t>c16w7t</t>
   </si>
   <si>
     <t>c17 w7</t>
@@ -405,6 +420,15 @@
     <t>sierpien</t>
   </si>
   <si>
+    <t>w8c3</t>
+  </si>
+  <si>
+    <t>c5w8</t>
+  </si>
+  <si>
+    <t>c10w8</t>
+  </si>
+  <si>
     <t>powyżej 2 lat - 3 lat</t>
   </si>
   <si>
@@ -423,10 +447,25 @@
     <t>powyżej 3 lat - 5 lat</t>
   </si>
   <si>
+    <t>c3w10</t>
+  </si>
+  <si>
+    <t>c4w10</t>
+  </si>
+  <si>
+    <t>c5w10</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>powyżej 5 lat</t>
+  </si>
+  <si>
+    <t>c4w11</t>
+  </si>
+  <si>
+    <t>c6w11</t>
   </si>
   <si>
     <t>17,7</t>
@@ -4467,23 +4506,23 @@
         <v>95</v>
       </c>
       <c r="T26" s="81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U26" s="81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V26" s="94" t="s">
         <v>70</v>
       </c>
       <c r="W26" s="92"/>
       <c r="X26" s="81" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="Y26" s="81" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="Z26" s="81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="81" t="s">
         <v>68</v>
@@ -4516,7 +4555,7 @@
         <v>68</v>
       </c>
       <c r="AK26" s="81" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -4524,7 +4563,7 @@
       <c r="B27" s="85"/>
       <c r="C27" s="92"/>
       <c r="D27" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E27" s="95"/>
       <c r="F27" s="95"/>
@@ -4554,13 +4593,13 @@
       </c>
       <c r="W27" s="92"/>
       <c r="X27" s="81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y27" s="81" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Z27" s="81" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AA27" s="81" t="s">
         <v>68</v>
@@ -4593,7 +4632,7 @@
         <v>68</v>
       </c>
       <c r="AK27" s="81" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -4601,7 +4640,7 @@
       <c r="B28" s="85"/>
       <c r="C28" s="92"/>
       <c r="D28" s="81" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E28" s="95"/>
       <c r="F28" s="95"/>
@@ -4634,16 +4673,16 @@
         <v>68</v>
       </c>
       <c r="Y28" s="81" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Z28" s="81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA28" s="81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AB28" s="81" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="AC28" s="81" t="s">
         <v>68</v>
@@ -4658,7 +4697,7 @@
         <v>68</v>
       </c>
       <c r="AG28" s="81" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AH28" s="81" t="s">
         <v>68</v>
@@ -4667,10 +4706,10 @@
         <v>68</v>
       </c>
       <c r="AJ28" s="81" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AK28" s="81" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -4678,11 +4717,11 @@
       <c r="B29" s="85"/>
       <c r="C29" s="92"/>
       <c r="D29" s="94" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E29" s="91"/>
       <c r="F29" s="81" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G29" s="95"/>
       <c r="H29" s="95"/>
@@ -4697,13 +4736,13 @@
       <c r="Q29" s="95"/>
       <c r="R29" s="96"/>
       <c r="S29" s="81" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="T29" s="81" t="s">
         <v>68</v>
       </c>
       <c r="U29" s="81" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="V29" s="94" t="s">
         <v>70</v>
@@ -4713,7 +4752,7 @@
         <v>68</v>
       </c>
       <c r="Y29" s="81" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="Z29" s="81" t="s">
         <v>68</v>
@@ -4728,7 +4767,7 @@
         <v>68</v>
       </c>
       <c r="AD29" s="81" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="AE29" s="81" t="s">
         <v>68</v>
@@ -4759,7 +4798,7 @@
       <c r="D30" s="87"/>
       <c r="E30" s="92"/>
       <c r="F30" s="81" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G30" s="95"/>
       <c r="H30" s="95"/>
@@ -4774,26 +4813,26 @@
       <c r="Q30" s="95"/>
       <c r="R30" s="96"/>
       <c r="S30" s="81" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="T30" s="81" t="s">
         <v>68</v>
       </c>
       <c r="U30" s="81" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="V30" s="94" t="s">
         <v>70</v>
       </c>
       <c r="W30" s="92"/>
       <c r="X30" s="81" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y30" s="81" t="s">
         <v>68</v>
       </c>
       <c r="Z30" s="81" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AA30" s="81" t="s">
         <v>68</v>
@@ -4836,7 +4875,7 @@
       <c r="D31" s="87"/>
       <c r="E31" s="92"/>
       <c r="F31" s="81" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G31" s="95"/>
       <c r="H31" s="95"/>
@@ -4857,17 +4896,17 @@
         <v>68</v>
       </c>
       <c r="U31" s="81" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="V31" s="94" t="s">
         <v>70</v>
       </c>
       <c r="W31" s="92"/>
       <c r="X31" s="81" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="Y31" s="81" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="Z31" s="81" t="s">
         <v>68</v>
@@ -4897,7 +4936,7 @@
         <v>68</v>
       </c>
       <c r="AI31" s="81" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AJ31" s="81" t="s">
         <v>68</v>
@@ -4913,7 +4952,7 @@
       <c r="D32" s="88"/>
       <c r="E32" s="93"/>
       <c r="F32" s="81" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G32" s="95"/>
       <c r="H32" s="95"/>
@@ -4941,16 +4980,16 @@
       </c>
       <c r="W32" s="93"/>
       <c r="X32" s="81" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="Y32" s="81" t="s">
         <v>68</v>
       </c>
       <c r="Z32" s="81" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="AA32" s="81" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="AB32" s="81" t="s">
         <v>68</v>
@@ -4977,7 +5016,7 @@
         <v>68</v>
       </c>
       <c r="AJ32" s="81" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AK32" s="81" t="s">
         <v>68</v>
@@ -5043,7 +5082,6 @@
     <mergeCell ref="F30:R30"/>
     <mergeCell ref="F31:R31"/>
     <mergeCell ref="F32:R32"/>
-    <mergeCell ref="A22:C32"/>
     <mergeCell ref="V22:W32"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
@@ -5135,7 +5173,7 @@
   <sheetData>
     <row r="1" ht="21">
       <c r="A1" s="54" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -5254,7 +5292,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
@@ -5275,22 +5313,22 @@
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
       <c r="F7" s="61" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
       <c r="K7" s="63" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M7" s="63" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="N7" s="64" t="s">
         <v>18</v>
@@ -5609,22 +5647,22 @@
         <v>18</v>
       </c>
       <c r="F15" s="99" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G15" s="99" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H15" s="99" t="s">
         <v>68</v>
       </c>
       <c r="I15" s="99" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J15" s="99" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K15" s="99" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L15" s="99" t="s">
         <v>68</v>
@@ -5710,14 +5748,14 @@
   <sheetData>
     <row r="1" ht="15.6">
       <c r="A1" s="15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
@@ -5727,11 +5765,11 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K1" s="15"/>
       <c r="L1" s="15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -5743,14 +5781,14 @@
       <c r="T1" s="15"/>
       <c r="U1" s="10"/>
       <c r="V1" s="16" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="W1" s="17" t="e">
         <f>VLOOKUP('Npw, Nk, Rc(a)'!$C$4,POMOCE!$L$2:$M$13,2)</f>
         <v>#N/A</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y1" s="17" t="e">
         <f>VLOOKUP('Npw, Nk, Rc(a)'!$C$2,POMOCE!$D$2:$E$14,2)</f>
@@ -5772,34 +5810,34 @@
         <v>51</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E2" s="10">
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I2" s="10">
         <v>0</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K2" s="10">
         <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M2" s="10">
         <v>6</v>
@@ -5812,13 +5850,13 @@
         <v>3</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -5834,40 +5872,40 @@
     </row>
     <row r="3" ht="15.6">
       <c r="A3" s="10" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G3" s="10">
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I3" s="10">
         <v>3</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K3" s="10">
         <v>2</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M3" s="10">
         <v>12</v>
@@ -5880,13 +5918,13 @@
         <v>3</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -5899,40 +5937,40 @@
     </row>
     <row r="4" ht="31.2">
       <c r="A4" s="10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E4" s="10">
         <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G4" s="10">
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="I4" s="10">
         <v>4</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K4" s="10">
         <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M4" s="10">
         <v>4</v>
@@ -5945,13 +5983,13 @@
         <v>4</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
@@ -5964,16 +6002,16 @@
     </row>
     <row r="5" ht="46.8">
       <c r="A5" s="10" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E5" s="10">
         <v>3</v>
@@ -5983,13 +6021,13 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K5" s="10">
         <v>4</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M5" s="10">
         <v>7</v>
@@ -6002,13 +6040,13 @@
         <v>3</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -6022,13 +6060,13 @@
     <row r="6" ht="46.8">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E6" s="10">
         <v>4</v>
@@ -6038,13 +6076,13 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="K6" s="10">
         <v>5</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M6" s="10">
         <v>11</v>
@@ -6057,13 +6095,13 @@
         <v>3</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -6077,13 +6115,13 @@
     <row r="7" ht="46.8">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E7" s="20">
         <v>6</v>
@@ -6093,13 +6131,13 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K7" s="10">
         <v>6</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M7" s="10">
         <v>2</v>
@@ -6112,13 +6150,13 @@
         <v>3</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -6135,10 +6173,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E8" s="10">
         <v>12</v>
@@ -6148,13 +6186,13 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K8" s="10">
         <v>7</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M8" s="10">
         <v>5</v>
@@ -6167,13 +6205,13 @@
         <v>3</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -6187,13 +6225,13 @@
     <row r="9" ht="31.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E9" s="20">
         <v>5</v>
@@ -6203,13 +6241,13 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="K9" s="10">
         <v>8</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M9" s="10">
         <v>3</v>
@@ -6222,13 +6260,13 @@
         <v>3</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -6242,13 +6280,13 @@
     <row r="10" ht="31.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E10" s="10">
         <v>7</v>
@@ -6258,13 +6296,13 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="K10" s="10">
         <v>9</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="M10" s="10">
         <v>10</v>
@@ -6277,13 +6315,13 @@
         <v>3</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -6298,10 +6336,10 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E11" s="10">
         <v>8</v>
@@ -6311,13 +6349,13 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="K11" s="10">
         <v>10</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="M11" s="10">
         <v>8</v>
@@ -6330,13 +6368,13 @@
         <v>3</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -6351,10 +6389,10 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E12" s="10">
         <v>9</v>
@@ -6364,13 +6402,13 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K12" s="10">
         <v>11</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M12" s="10">
         <v>1</v>
@@ -6383,13 +6421,13 @@
         <v>3</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
@@ -6404,10 +6442,10 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E13" s="10">
         <v>10</v>
@@ -6417,13 +6455,13 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K13" s="10">
         <v>12</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M13" s="10">
         <v>9</v>
@@ -6436,13 +6474,13 @@
         <v>3</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -6457,10 +6495,10 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E14" s="10">
         <v>11</v>
@@ -6516,7 +6554,7 @@
   <sheetData>
     <row r="1" ht="28.35" customHeight="1" s="21" customFormat="1">
       <c r="A1" s="67" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -6547,13 +6585,13 @@
     </row>
     <row r="2" ht="30.45" customHeight="1" s="21" customFormat="1">
       <c r="A2" s="22" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
@@ -6566,10 +6604,10 @@
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="68" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="P2" s="69"/>
       <c r="Q2" s="69"/>
@@ -6581,10 +6619,10 @@
       <c r="W2" s="69"/>
       <c r="X2" s="69"/>
       <c r="Z2" s="70" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AA2" s="71" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" ht="30.45" customHeight="1">
@@ -6617,7 +6655,7 @@
       <c r="M3" s="72"/>
       <c r="N3" s="68"/>
       <c r="O3" s="73" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="P3" s="66" t="s">
         <v>29</v>
@@ -6651,56 +6689,56 @@
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
       <c r="F4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N4" s="68"/>
       <c r="O4" s="73"/>
       <c r="P4" s="66"/>
       <c r="Q4" s="66"/>
       <c r="R4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="Z4" s="70"/>
       <c r="AA4" s="71"/>
@@ -6710,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C5" s="86">
         <v>0</v>
@@ -6793,7 +6831,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C6" s="86">
         <v>0</v>
@@ -6876,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C7" s="86">
         <v>0</v>
@@ -6959,7 +6997,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C8" s="86">
         <v>5444</v>
@@ -7042,7 +7080,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C9" s="86">
         <v>7363</v>
@@ -7125,7 +7163,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C10" s="86">
         <v>0</v>
@@ -7208,16 +7246,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E11" s="86" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F11" s="86" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G11" s="86" t="s">
         <v>68</v>
@@ -7238,7 +7276,7 @@
         <v>68</v>
       </c>
       <c r="M11" s="86" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="N11" s="86" t="s">
         <v>68</v>
@@ -7335,7 +7373,7 @@
   <sheetData>
     <row r="1" ht="28.35" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -7357,13 +7395,13 @@
     </row>
     <row r="2" ht="28.35" customHeight="1">
       <c r="A2" s="66" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
@@ -7372,10 +7410,10 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="J2" s="76" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
@@ -7384,7 +7422,7 @@
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
       <c r="R2" s="77" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" ht="28.35" customHeight="1">
@@ -7440,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C4" s="86">
         <v>0</v>
@@ -7496,7 +7534,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C5" s="86">
         <v>0</v>
@@ -7552,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C6" s="86">
         <v>0</v>
@@ -7608,7 +7646,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C7" s="86">
         <v>6444</v>
@@ -7626,13 +7664,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I7" s="86">
         <v>0</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K7" s="86">
         <v>0</v>
@@ -7664,7 +7702,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C8" s="86">
         <v>8363</v>
@@ -7682,13 +7720,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I8" s="86">
         <v>0</v>
       </c>
       <c r="J8" s="86" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K8" s="86">
         <v>0</v>
@@ -7720,7 +7758,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C9" s="86">
         <v>0</v>
@@ -7776,10 +7814,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>68</v>
@@ -7791,13 +7829,13 @@
         <v>68</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I10" s="86" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="86" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K10" s="86" t="s">
         <v>68</v>
